--- a/trunk/Architect and Design/Final Project/K15T2_Team2_FinalProject/POS_Time_Logs/Time_log_HiepTa.xlsx
+++ b/trunk/Architect and Design/Final Project/K15T2_Team2_FinalProject/POS_Time_Logs/Time_log_HiepTa.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Sheet1" sheetId="4" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="OLE_LINK1" localSheetId="0">SAD!$A$50</definedName>
+    <definedName name="OLE_LINK1" localSheetId="0">SAD!$A$49</definedName>
     <definedName name="OLE_LINK3" localSheetId="0">SAD!$A$6</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
   <si>
     <t>Week</t>
   </si>
@@ -124,15 +124,25 @@
   </si>
   <si>
     <t>Modify architecture driver document</t>
+  </si>
+  <si>
+    <t>Review document</t>
+  </si>
+  <si>
+    <t>Modify C&amp;C View team 2</t>
+  </si>
+  <si>
+    <t>Hours</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
-    <numFmt numFmtId="168" formatCode="[$-409]h:mm\ AM/PM;@"/>
-    <numFmt numFmtId="169" formatCode="h:mm;@"/>
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="[$-409]h:mm\ AM/PM;@"/>
+    <numFmt numFmtId="165" formatCode="h:mm;@"/>
+    <numFmt numFmtId="169" formatCode="[h]:mm:ss;@"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -497,7 +507,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -517,167 +527,170 @@
     <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="8" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="8" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="7" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -980,10 +993,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:L62"/>
+  <dimension ref="A2:L61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1002,17 +1015,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
     </row>
     <row r="3" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="D3" s="2"/>
@@ -1033,6 +1046,13 @@
       <c r="F4" s="6">
         <v>41043</v>
       </c>
+      <c r="K4" s="61">
+        <f>SUM(E7:E39)</f>
+        <v>3.4583333333333339</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" s="5"/>
@@ -1040,730 +1060,776 @@
       <c r="L5"/>
     </row>
     <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="42" t="s">
+      <c r="C6" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="42" t="s">
+      <c r="D6" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="42" t="s">
+      <c r="E6" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="42" t="s">
+      <c r="F6" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="42" t="s">
+      <c r="G6" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="42" t="s">
+      <c r="H6" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="42" t="s">
+      <c r="I6" s="38" t="s">
         <v>8</v>
       </c>
       <c r="K6"/>
       <c r="L6"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="38">
+      <c r="A7" s="59">
         <v>1</v>
       </c>
-      <c r="B7" s="17">
+      <c r="B7" s="16">
         <v>41043</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="7">
         <v>0.4375</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="7">
         <v>0.5</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="8">
         <f>D7-C7</f>
         <v>6.25E-2</v>
       </c>
-      <c r="F7" s="18" t="s">
+      <c r="F7" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="35"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="34"/>
       <c r="K7"/>
       <c r="L7"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="39"/>
-      <c r="B8" s="12">
+      <c r="A8" s="53"/>
+      <c r="B8" s="11">
         <v>41045</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="12">
         <v>0.85416666666666663</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="12">
         <v>0.95833333333333337</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E8" s="13">
         <f t="shared" ref="E8:E34" si="0">D8-C8</f>
         <v>0.10416666666666674</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="F8" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="16" t="s">
+      <c r="G8" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="16"/>
-      <c r="I8" s="31"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="30"/>
       <c r="K8"/>
       <c r="L8"/>
     </row>
     <row r="9" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="39"/>
-      <c r="B9" s="12">
+      <c r="A9" s="53"/>
+      <c r="B9" s="11">
         <v>41046</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="12">
         <v>0.85416666666666663</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="12">
         <v>0.89583333333333337</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="13">
         <f t="shared" si="0"/>
         <v>4.1666666666666741E-2</v>
       </c>
-      <c r="F9" s="15" t="s">
+      <c r="F9" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="31"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="30"/>
       <c r="K9"/>
       <c r="L9"/>
     </row>
     <row r="10" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="58"/>
-      <c r="B10" s="47">
+      <c r="A10" s="60"/>
+      <c r="B10" s="39">
         <v>41047</v>
       </c>
-      <c r="C10" s="48">
+      <c r="C10" s="40">
         <v>0.85416666666666663</v>
       </c>
-      <c r="D10" s="48">
+      <c r="D10" s="40">
         <v>1</v>
       </c>
-      <c r="E10" s="49">
+      <c r="E10" s="41">
         <f t="shared" si="0"/>
         <v>0.14583333333333337</v>
       </c>
-      <c r="F10" s="50" t="s">
+      <c r="F10" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="50"/>
-      <c r="H10" s="50"/>
-      <c r="I10" s="51"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="43"/>
       <c r="K10"/>
       <c r="L10"/>
     </row>
     <row r="11" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="57">
+      <c r="A11" s="49">
         <v>2</v>
       </c>
-      <c r="B11" s="53">
+      <c r="B11" s="45">
         <v>41050</v>
       </c>
-      <c r="C11" s="33">
+      <c r="C11" s="32">
         <v>0.875</v>
       </c>
-      <c r="D11" s="33">
+      <c r="D11" s="32">
         <v>0.95833333333333337</v>
       </c>
-      <c r="E11" s="34">
+      <c r="E11" s="33">
         <f t="shared" si="0"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="F11" s="55" t="s">
+      <c r="F11" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="G11" s="54"/>
-      <c r="H11" s="54"/>
-      <c r="I11" s="60"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="50"/>
       <c r="K11"/>
       <c r="L11"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="59">
+      <c r="A12" s="52">
         <v>3</v>
       </c>
-      <c r="B12" s="27">
+      <c r="B12" s="26">
         <v>41058</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="9">
         <v>0.83333333333333337</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="9">
         <v>1</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="10">
         <f t="shared" si="0"/>
         <v>0.16666666666666663</v>
       </c>
-      <c r="F12" s="29" t="s">
+      <c r="F12" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="36"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="35"/>
       <c r="K12"/>
       <c r="L12"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="39"/>
-      <c r="B13" s="12">
+      <c r="A13" s="53"/>
+      <c r="B13" s="11">
         <v>41058</v>
       </c>
-      <c r="C13" s="13">
+      <c r="C13" s="12">
         <v>0.83333333333333337</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D13" s="12">
         <v>0.91666666666666663</v>
       </c>
-      <c r="E13" s="14">
+      <c r="E13" s="13">
         <f t="shared" si="0"/>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="F13" s="16" t="s">
+      <c r="F13" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="31"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="30"/>
       <c r="K13"/>
       <c r="L13"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="39"/>
-      <c r="B14" s="12">
+      <c r="A14" s="53"/>
+      <c r="B14" s="11">
         <v>41059</v>
       </c>
-      <c r="C14" s="13">
+      <c r="C14" s="12">
         <v>0.85416666666666663</v>
       </c>
-      <c r="D14" s="13">
+      <c r="D14" s="12">
         <v>0.9375</v>
       </c>
-      <c r="E14" s="14">
+      <c r="E14" s="13">
         <f t="shared" si="0"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="F14" s="16" t="s">
+      <c r="F14" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="31"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="30"/>
     </row>
     <row r="15" spans="1:12" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="39"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="14">
+      <c r="A15" s="53"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F15" s="16"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="31"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="30"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="39"/>
-      <c r="B16" s="12">
+      <c r="A16" s="53"/>
+      <c r="B16" s="11">
         <v>41060</v>
       </c>
-      <c r="C16" s="13">
+      <c r="C16" s="12">
         <v>0.54166666666666663</v>
       </c>
-      <c r="D16" s="13">
+      <c r="D16" s="12">
         <v>0.66666666666666663</v>
       </c>
-      <c r="E16" s="14">
+      <c r="E16" s="13">
         <f t="shared" si="0"/>
         <v>0.125</v>
       </c>
-      <c r="F16" s="16" t="s">
+      <c r="F16" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="31"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="30"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="39"/>
-      <c r="B17" s="37">
+      <c r="A17" s="53"/>
+      <c r="B17" s="36">
         <v>41058</v>
       </c>
-      <c r="C17" s="13">
+      <c r="C17" s="12">
         <v>0.875</v>
       </c>
-      <c r="D17" s="13">
+      <c r="D17" s="12">
         <v>1</v>
       </c>
-      <c r="E17" s="14">
+      <c r="E17" s="13">
         <f t="shared" si="0"/>
         <v>0.125</v>
       </c>
-      <c r="F17" s="16" t="s">
+      <c r="F17" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="31"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="30"/>
     </row>
     <row r="18" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="40"/>
-      <c r="B18" s="21">
+      <c r="A18" s="54"/>
+      <c r="B18" s="20">
         <v>41060</v>
       </c>
-      <c r="C18" s="22">
+      <c r="C18" s="21">
         <v>0.58333333333333337</v>
       </c>
-      <c r="D18" s="22">
+      <c r="D18" s="21">
         <v>0.70833333333333337</v>
       </c>
-      <c r="E18" s="23">
+      <c r="E18" s="22">
         <f t="shared" si="0"/>
         <v>0.125</v>
       </c>
-      <c r="F18" s="25" t="s">
+      <c r="F18" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="32"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="31"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="43">
+      <c r="A19" s="55">
         <v>4</v>
       </c>
-      <c r="B19" s="27">
+      <c r="B19" s="26">
         <v>41075</v>
       </c>
-      <c r="C19" s="10">
+      <c r="C19" s="9">
         <v>0.875</v>
       </c>
-      <c r="D19" s="10">
+      <c r="D19" s="9">
         <v>0.9375</v>
       </c>
-      <c r="E19" s="11">
+      <c r="E19" s="10">
         <f t="shared" si="0"/>
         <v>6.25E-2</v>
       </c>
-      <c r="F19" s="29" t="s">
+      <c r="F19" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="G19" s="28"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="36"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="35"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="44"/>
-      <c r="B20" s="12">
+      <c r="A20" s="56"/>
+      <c r="B20" s="11">
         <v>41076</v>
       </c>
-      <c r="C20" s="13">
+      <c r="C20" s="12">
         <v>0.625</v>
       </c>
-      <c r="D20" s="13">
+      <c r="D20" s="12">
         <v>0.66666666666666663</v>
       </c>
-      <c r="E20" s="14">
+      <c r="E20" s="13">
         <f t="shared" si="0"/>
         <v>4.166666666666663E-2</v>
       </c>
-      <c r="F20" s="16" t="s">
+      <c r="F20" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="31"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="30"/>
     </row>
     <row r="21" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="45"/>
-      <c r="B21" s="21">
+      <c r="A21" s="57"/>
+      <c r="B21" s="20">
         <v>41077</v>
       </c>
-      <c r="C21" s="22">
+      <c r="C21" s="21">
         <v>0.54166666666666663</v>
       </c>
-      <c r="D21" s="22">
+      <c r="D21" s="21">
         <v>0.58333333333333337</v>
       </c>
-      <c r="E21" s="23">
+      <c r="E21" s="22">
         <f t="shared" si="0"/>
         <v>4.1666666666666741E-2</v>
       </c>
-      <c r="F21" s="25" t="s">
+      <c r="F21" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="G21" s="24"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="32"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="31"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="43">
+      <c r="A22" s="55">
         <v>5</v>
       </c>
-      <c r="B22" s="27">
+      <c r="B22" s="26">
         <v>41078</v>
       </c>
-      <c r="C22" s="10">
+      <c r="C22" s="9">
         <v>0.83333333333333337</v>
       </c>
-      <c r="D22" s="10">
+      <c r="D22" s="9">
         <v>0.91666666666666663</v>
       </c>
-      <c r="E22" s="11">
+      <c r="E22" s="10">
         <f t="shared" si="0"/>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="F22" s="29" t="s">
+      <c r="F22" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="G22" s="28"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="30"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="29"/>
     </row>
     <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="44"/>
-      <c r="B23" s="12">
+      <c r="A23" s="56"/>
+      <c r="B23" s="11">
         <v>41079</v>
       </c>
-      <c r="C23" s="13">
+      <c r="C23" s="12">
         <v>0.54166666666666663</v>
       </c>
-      <c r="D23" s="13">
+      <c r="D23" s="12">
         <v>0.66666666666666663</v>
       </c>
-      <c r="E23" s="14">
+      <c r="E23" s="13">
         <f t="shared" si="0"/>
         <v>0.125</v>
       </c>
-      <c r="F23" s="16" t="s">
+      <c r="F23" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="G23" s="16"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="20"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="19"/>
     </row>
     <row r="24" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="44"/>
-      <c r="B24" s="12">
+      <c r="A24" s="56"/>
+      <c r="B24" s="11">
         <v>41080</v>
       </c>
-      <c r="C24" s="13">
+      <c r="C24" s="12">
         <v>0.54166666666666663</v>
       </c>
-      <c r="D24" s="13">
+      <c r="D24" s="12">
         <v>0.70833333333333337</v>
       </c>
-      <c r="E24" s="14">
+      <c r="E24" s="13">
         <f t="shared" si="0"/>
         <v>0.16666666666666674</v>
       </c>
-      <c r="F24" s="15" t="s">
+      <c r="F24" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="31"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="30"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="46"/>
-      <c r="B25" s="47">
+      <c r="A25" s="58"/>
+      <c r="B25" s="39">
         <v>41081</v>
       </c>
-      <c r="C25" s="48">
+      <c r="C25" s="40">
         <v>0.35416666666666669</v>
       </c>
-      <c r="D25" s="48">
+      <c r="D25" s="40">
         <v>0.45833333333333331</v>
       </c>
-      <c r="E25" s="49">
+      <c r="E25" s="41">
         <f t="shared" si="0"/>
         <v>0.10416666666666663</v>
       </c>
-      <c r="F25" s="15" t="s">
+      <c r="F25" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="G25" s="50"/>
-      <c r="H25" s="50"/>
-      <c r="I25" s="51"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="43"/>
     </row>
     <row r="26" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="52">
+      <c r="A26" s="44">
         <v>6</v>
       </c>
-      <c r="B26" s="53">
+      <c r="B26" s="45">
         <v>41089</v>
       </c>
-      <c r="C26" s="33">
+      <c r="C26" s="32">
         <v>0.54166666666666663</v>
       </c>
-      <c r="D26" s="33">
+      <c r="D26" s="32">
         <v>0.79166666666666663</v>
       </c>
-      <c r="E26" s="34">
+      <c r="E26" s="33">
         <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
-      <c r="F26" s="54" t="s">
+      <c r="F26" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="G26" s="55"/>
-      <c r="H26" s="55"/>
-      <c r="I26" s="56"/>
+      <c r="G26" s="47"/>
+      <c r="H26" s="47"/>
+      <c r="I26" s="48"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="43">
+      <c r="A27" s="55">
         <v>7</v>
       </c>
-      <c r="B27" s="27">
+      <c r="B27" s="26">
         <v>41090</v>
       </c>
-      <c r="C27" s="10">
+      <c r="C27" s="9">
         <v>0.375</v>
       </c>
-      <c r="D27" s="10">
+      <c r="D27" s="9">
         <v>0.45833333333333331</v>
       </c>
-      <c r="E27" s="11">
+      <c r="E27" s="10">
         <f t="shared" si="0"/>
         <v>8.3333333333333315E-2</v>
       </c>
-      <c r="F27" s="28" t="s">
+      <c r="F27" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="G27" s="29"/>
-      <c r="H27" s="29"/>
-      <c r="I27" s="30"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="29"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="44"/>
-      <c r="B28" s="12">
+      <c r="A28" s="56"/>
+      <c r="B28" s="11">
         <v>41090</v>
       </c>
-      <c r="C28" s="13">
+      <c r="C28" s="12">
         <v>0.33333333333333331</v>
       </c>
-      <c r="D28" s="13">
+      <c r="D28" s="12">
         <v>0.41666666666666669</v>
       </c>
-      <c r="E28" s="14">
+      <c r="E28" s="13">
         <f t="shared" si="0"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="F28" s="15" t="s">
+      <c r="F28" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="G28" s="16"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="20"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="19"/>
     </row>
     <row r="29" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="45"/>
-      <c r="B29" s="21">
+      <c r="A29" s="57"/>
+      <c r="B29" s="20">
         <v>41091</v>
       </c>
-      <c r="C29" s="22">
+      <c r="C29" s="21">
         <v>0.54166666666666663</v>
       </c>
-      <c r="D29" s="22">
+      <c r="D29" s="21">
         <v>0.70833333333333337</v>
       </c>
-      <c r="E29" s="23">
+      <c r="E29" s="22">
         <f t="shared" si="0"/>
         <v>0.16666666666666674</v>
       </c>
-      <c r="F29" s="24" t="s">
+      <c r="F29" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="G29" s="25"/>
-      <c r="H29" s="25"/>
-      <c r="I29" s="26"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="25"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="43">
+      <c r="A30" s="55">
         <v>8</v>
       </c>
-      <c r="B30" s="27">
+      <c r="B30" s="26">
         <v>41092</v>
       </c>
-      <c r="C30" s="10">
+      <c r="C30" s="9">
         <v>0.54166666666666663</v>
       </c>
-      <c r="D30" s="10">
+      <c r="D30" s="9">
         <v>0.66666666666666663</v>
       </c>
-      <c r="E30" s="11">
+      <c r="E30" s="10">
         <f t="shared" si="0"/>
         <v>0.125</v>
       </c>
-      <c r="F30" s="28" t="s">
+      <c r="F30" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="G30" s="29"/>
-      <c r="H30" s="29"/>
-      <c r="I30" s="30"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="29"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="44"/>
-      <c r="B31" s="12">
+      <c r="A31" s="56"/>
+      <c r="B31" s="11">
         <v>41092</v>
       </c>
-      <c r="C31" s="13">
+      <c r="C31" s="12">
         <v>0.875</v>
       </c>
-      <c r="D31" s="13">
+      <c r="D31" s="12">
         <v>0.97916666666666663</v>
       </c>
-      <c r="E31" s="14">
+      <c r="E31" s="13">
         <f t="shared" si="0"/>
         <v>0.10416666666666663</v>
       </c>
-      <c r="F31" s="28" t="s">
+      <c r="F31" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="G31" s="16"/>
-      <c r="H31" s="16"/>
-      <c r="I31" s="20"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="19"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="44"/>
-      <c r="B32" s="12">
+      <c r="A32" s="56"/>
+      <c r="B32" s="11">
         <v>41093</v>
       </c>
-      <c r="C32" s="13">
+      <c r="C32" s="12">
         <v>0.89583333333333337</v>
       </c>
-      <c r="D32" s="13">
+      <c r="D32" s="12">
         <v>0.97916666666666663</v>
       </c>
-      <c r="E32" s="14">
+      <c r="E32" s="13">
         <f t="shared" si="0"/>
         <v>8.3333333333333259E-2</v>
       </c>
-      <c r="F32" s="15" t="s">
+      <c r="F32" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="G32" s="16"/>
-      <c r="H32" s="16"/>
-      <c r="I32" s="20"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="19"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="44"/>
-      <c r="B33" s="12">
+      <c r="A33" s="56"/>
+      <c r="B33" s="11">
         <v>41094</v>
       </c>
-      <c r="C33" s="13">
+      <c r="C33" s="12">
         <v>0.375</v>
       </c>
-      <c r="D33" s="13">
+      <c r="D33" s="12">
         <v>0.45833333333333331</v>
       </c>
-      <c r="E33" s="14">
+      <c r="E33" s="13">
         <f t="shared" si="0"/>
         <v>8.3333333333333315E-2</v>
       </c>
-      <c r="F33" s="15" t="s">
+      <c r="F33" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="G33" s="16"/>
-      <c r="H33" s="16"/>
-      <c r="I33" s="20"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="19"/>
     </row>
     <row r="34" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="45"/>
-      <c r="B34" s="21">
+      <c r="A34" s="57"/>
+      <c r="B34" s="20">
         <v>41094</v>
       </c>
-      <c r="C34" s="22">
+      <c r="C34" s="21">
         <v>0.54166666666666663</v>
       </c>
-      <c r="D34" s="22">
+      <c r="D34" s="21">
         <v>0.79166666666666663</v>
       </c>
-      <c r="E34" s="23">
+      <c r="E34" s="22">
         <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
-      <c r="F34" s="15" t="s">
+      <c r="F34" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="G34" s="25"/>
-      <c r="H34" s="25"/>
-      <c r="I34" s="26"/>
+      <c r="G34" s="24"/>
+      <c r="H34" s="24"/>
+      <c r="I34" s="25"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35"/>
-      <c r="B35"/>
-      <c r="C35"/>
-      <c r="D35"/>
-      <c r="E35"/>
-      <c r="F35"/>
-      <c r="G35"/>
-      <c r="H35"/>
-      <c r="I35"/>
+      <c r="A35" s="55">
+        <v>11</v>
+      </c>
+      <c r="B35" s="26">
+        <v>41113</v>
+      </c>
+      <c r="C35" s="9">
+        <v>0.375</v>
+      </c>
+      <c r="D35" s="9">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E35" s="10">
+        <f t="shared" ref="E35:E38" si="1">D35-C35</f>
+        <v>8.3333333333333315E-2</v>
+      </c>
+      <c r="F35" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="G35" s="28"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="29"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36"/>
-      <c r="B36"/>
-      <c r="C36"/>
-      <c r="D36"/>
-      <c r="E36"/>
-      <c r="F36"/>
-      <c r="G36"/>
-      <c r="H36"/>
-      <c r="I36"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37"/>
-      <c r="B37"/>
-      <c r="C37"/>
-      <c r="D37"/>
-      <c r="E37"/>
-      <c r="F37"/>
-      <c r="G37"/>
-      <c r="H37"/>
-      <c r="I37"/>
+      <c r="A36" s="56"/>
+      <c r="B36" s="26">
+        <v>41114</v>
+      </c>
+      <c r="C36" s="12">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D36" s="12">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E36" s="13">
+        <f t="shared" si="1"/>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="F36" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="G36" s="15"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="19"/>
+    </row>
+    <row r="37" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="56"/>
+      <c r="B37" s="26">
+        <v>41115</v>
+      </c>
+      <c r="C37" s="21">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D37" s="21">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E37" s="22">
+        <f t="shared" si="1"/>
+        <v>0.16666666666666674</v>
+      </c>
+      <c r="F37" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="G37" s="15"/>
+      <c r="H37" s="15"/>
+      <c r="I37" s="19"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38"/>
-      <c r="B38"/>
-      <c r="C38"/>
-      <c r="D38"/>
-      <c r="E38"/>
-      <c r="F38"/>
-      <c r="G38"/>
-      <c r="H38"/>
-      <c r="I38"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39"/>
-      <c r="B39"/>
-      <c r="C39"/>
-      <c r="D39"/>
-      <c r="E39"/>
-      <c r="F39"/>
-      <c r="G39"/>
-      <c r="H39"/>
-      <c r="I39"/>
+      <c r="A38" s="56"/>
+      <c r="B38" s="26">
+        <v>41116</v>
+      </c>
+      <c r="C38" s="9">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D38" s="9">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E38" s="10">
+        <f t="shared" si="1"/>
+        <v>0.125</v>
+      </c>
+      <c r="F38" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G38" s="15"/>
+      <c r="H38" s="15"/>
+      <c r="I38" s="19"/>
+    </row>
+    <row r="39" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="57"/>
+      <c r="B39" s="20"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="24"/>
+      <c r="H39" s="24"/>
+      <c r="I39" s="25"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40"/>
@@ -1864,7 +1930,7 @@
       <c r="H48"/>
       <c r="I48"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49"/>
       <c r="B49"/>
       <c r="C49"/>
@@ -1875,7 +1941,7 @@
       <c r="H49"/>
       <c r="I49"/>
     </row>
-    <row r="50" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50"/>
       <c r="B50"/>
       <c r="C50"/>
@@ -1886,7 +1952,7 @@
       <c r="H50"/>
       <c r="I50"/>
     </row>
-    <row r="51" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51"/>
       <c r="B51"/>
       <c r="C51"/>
@@ -2007,26 +2073,16 @@
       <c r="H61"/>
       <c r="I61"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62"/>
-      <c r="B62"/>
-      <c r="C62"/>
-      <c r="D62"/>
-      <c r="E62"/>
-      <c r="F62"/>
-      <c r="G62"/>
-      <c r="H62"/>
-      <c r="I62"/>
-    </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="A30:A34"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="A35:A39"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A12:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A25"/>
     <mergeCell ref="A27:A29"/>
-    <mergeCell ref="A30:A34"/>
-    <mergeCell ref="A7:A10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
